--- a/v206/Messdaten.xlsx
+++ b/v206/Messdaten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a403027534f5acd6/Uni/Physik/Grundpraktikum/grundpraktikum/v206/v206/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a403027534f5acd6/Uni/Physik/Grundpraktikum/Versuchsprotokolle/v206/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="8_{8B3C9223-B8E1-4B93-B0CC-AA1BC379CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45B984B-BC95-4909-88CE-00D82B995C79}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{8B3C9223-B8E1-4B93-B0CC-AA1BC379CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1B5E81-82F9-4C9D-A1C1-9AEE00B00515}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8300B19B-987C-4458-BF42-8CC2FA1AA60C}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>t^2(s^2)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>t(s)</t>
   </si>
@@ -72,7 +69,7 @@
     <t xml:space="preserve">T_2 (C) </t>
   </si>
   <si>
-    <t>leer</t>
+    <t>t**2(s**2)</t>
   </si>
 </sst>
 </file>
@@ -81,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,7 +120,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -442,7 +439,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,40 +455,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -529,9 +526,7 @@
         <f>(H2+1)*100000</f>
         <v>480000</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="2">
         <f>(1/E2)</f>
         <v>3.3938571186153065E-3</v>
@@ -573,9 +568,7 @@
         <f t="shared" ref="J3:J29" si="3">(H3+1)*100000</f>
         <v>630000</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="2">
         <f t="shared" ref="L3:L29" si="4">(1/E3)</f>
         <v>3.3732501264968798E-3</v>
@@ -617,9 +610,7 @@
         <f t="shared" si="3"/>
         <v>690000</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="2">
         <f t="shared" si="4"/>
         <v>3.3573946617424882E-3</v>
@@ -661,9 +652,7 @@
         <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="2">
         <f t="shared" si="4"/>
         <v>3.3383408446002343E-3</v>
@@ -705,9 +694,7 @@
         <f t="shared" si="3"/>
         <v>740000</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
         <v>3.3217073575817976E-3</v>

--- a/v206/Messdaten.xlsx
+++ b/v206/Messdaten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a403027534f5acd6/Uni/Physik/Grundpraktikum/Versuchsprotokolle/v206/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a403027534f5acd6/Uni/Physik/Grundpraktikum/Protokolle/v206/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{8B3C9223-B8E1-4B93-B0CC-AA1BC379CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1B5E81-82F9-4C9D-A1C1-9AEE00B00515}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="8_{8B3C9223-B8E1-4B93-B0CC-AA1BC379CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72657877-24C0-4A6F-B637-653DF5FA1062}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8300B19B-987C-4458-BF42-8CC2FA1AA60C}"/>
+    <workbookView xWindow="15540" yWindow="3705" windowWidth="21600" windowHeight="11385" xr2:uid="{8300B19B-987C-4458-BF42-8CC2FA1AA60C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2529F12-F664-4EF9-93B5-3FBB1EF0704D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
